--- a/bd/import_excel.xlsx
+++ b/bd/import_excel.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1629" uniqueCount="222">
   <si>
     <t>INSERT INTO tb_extrato (data_movimentacao, mes, tipo_operacao, movimentacao, quantidade, valor, saldo, fk_id_categoria, fk_id_conta, despesa_fixa) VALUES (</t>
   </si>
@@ -194,9 +194,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Fevereiro</t>
-  </si>
-  <si>
     <t>Gasolina</t>
   </si>
   <si>
@@ -209,91 +206,490 @@
     <t>Cartão BB</t>
   </si>
   <si>
+    <t>Cerveja</t>
+  </si>
+  <si>
+    <t>Conta Luz</t>
+  </si>
+  <si>
+    <t>Rendimentos</t>
+  </si>
+  <si>
+    <t>Salário High Tech</t>
+  </si>
+  <si>
+    <t>Comissões</t>
+  </si>
+  <si>
+    <t>Nimesulida</t>
+  </si>
+  <si>
+    <t>Taf Beer</t>
+  </si>
+  <si>
+    <t>Mãe</t>
+  </si>
+  <si>
+    <t>Pães</t>
+  </si>
+  <si>
+    <t>24.89</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>290.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>10.00</t>
+  </si>
+  <si>
+    <t>28.00</t>
+  </si>
+  <si>
+    <t>211.14</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>15.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>60.00</t>
+  </si>
+  <si>
+    <t>40.53</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>342.80</t>
+  </si>
+  <si>
+    <t>25.00</t>
+  </si>
+  <si>
+    <t>Março</t>
+  </si>
+  <si>
+    <t>Tim Celular</t>
+  </si>
+  <si>
+    <t>Bar Janda</t>
+  </si>
+  <si>
+    <t>Viagem Caldas</t>
+  </si>
+  <si>
+    <t>Cartão Pai 5/8</t>
+  </si>
+  <si>
+    <t>Aluguel Casa Caldas</t>
+  </si>
+  <si>
+    <t>Despesas Viagem Caldas</t>
+  </si>
+  <si>
+    <t>Parcela Seguro Corsa 4/4</t>
+  </si>
+  <si>
+    <t>Cartão Votorantim</t>
+  </si>
+  <si>
     <t>Lotofácil</t>
   </si>
   <si>
-    <t>Cartão Votorantim</t>
-  </si>
-  <si>
-    <t>Cerveja</t>
-  </si>
-  <si>
-    <t>Créditos Tim</t>
+    <t>Amoxilina</t>
+  </si>
+  <si>
+    <t>Viviane Crédito</t>
   </si>
   <si>
     <t>Mandacaru</t>
   </si>
   <si>
-    <t>Conta Luz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comissões </t>
-  </si>
-  <si>
-    <t>Cartão Pai 4/8</t>
-  </si>
-  <si>
-    <t>Rendimentos</t>
-  </si>
-  <si>
-    <t>HD 1TB</t>
-  </si>
-  <si>
-    <t>Perfume Polo Blue</t>
-  </si>
-  <si>
-    <t>Internet</t>
-  </si>
-  <si>
-    <t>Celular Raquel</t>
+    <t>Digidoc</t>
+  </si>
+  <si>
+    <t>Grito do Rock</t>
+  </si>
+  <si>
+    <t>Área do 51</t>
+  </si>
+  <si>
+    <t>Telefone Casa</t>
+  </si>
+  <si>
+    <t>McDonalds</t>
   </si>
   <si>
     <t>Cartão Pai 10/11</t>
   </si>
   <si>
-    <t>Cabo Telefônico</t>
+    <t>Cerveja Bete</t>
+  </si>
+  <si>
+    <t>Salgados</t>
+  </si>
+  <si>
+    <t>Listerine</t>
+  </si>
+  <si>
+    <t>Refil Sensor</t>
+  </si>
+  <si>
+    <t>Par de 69 Bravox</t>
+  </si>
+  <si>
+    <t>Show Iron Cover</t>
+  </si>
+  <si>
+    <t>Instalação 69 Bravos</t>
+  </si>
+  <si>
+    <t>Película Corsa</t>
   </si>
   <si>
     <t>Remédios</t>
   </si>
   <si>
-    <t>Alfamas</t>
-  </si>
-  <si>
-    <t>Tarifas Saques</t>
-  </si>
-  <si>
-    <t>Franguitos</t>
-  </si>
-  <si>
-    <t>Cerveja Nando</t>
-  </si>
-  <si>
-    <t>Festa Eliseu</t>
-  </si>
-  <si>
-    <t>Gelo</t>
-  </si>
-  <si>
-    <t>Viviane</t>
-  </si>
-  <si>
-    <t>Resfenol</t>
-  </si>
-  <si>
-    <t>Festa Play</t>
-  </si>
-  <si>
-    <t>BCAA</t>
-  </si>
-  <si>
-    <t>Fraldas</t>
-  </si>
-  <si>
-    <t>Parcela Corsa 3/36</t>
-  </si>
-  <si>
-    <t>Seguro Corsa 03/04</t>
+    <t>Parcela Corsa 4/36</t>
+  </si>
+  <si>
+    <t>Cervejas Show Iron</t>
+  </si>
+  <si>
+    <t>WHEIN PROTEIN</t>
+  </si>
+  <si>
+    <t>Maltodextrina</t>
+  </si>
+  <si>
+    <t>118.00</t>
+  </si>
+  <si>
+    <t>22602.16</t>
+  </si>
+  <si>
+    <t>22574.16</t>
+  </si>
+  <si>
+    <t>22562.16</t>
+  </si>
+  <si>
+    <t>17.14</t>
+  </si>
+  <si>
+    <t>22545.02</t>
+  </si>
+  <si>
+    <t>22520.13</t>
+  </si>
+  <si>
+    <t>22490.13</t>
+  </si>
+  <si>
+    <t>22460.13</t>
+  </si>
+  <si>
+    <t>121.00</t>
+  </si>
+  <si>
+    <t>22339.13</t>
+  </si>
+  <si>
+    <t>22309.13</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>22119.13</t>
+  </si>
+  <si>
+    <t>1150.00</t>
+  </si>
+  <si>
+    <t>23269.13</t>
+  </si>
+  <si>
+    <t>292.00</t>
+  </si>
+  <si>
+    <t>22977.13</t>
+  </si>
+  <si>
+    <t>22765.99</t>
+  </si>
+  <si>
+    <t>22475.99</t>
+  </si>
+  <si>
+    <t>88.00</t>
+  </si>
+  <si>
+    <t>22387.99</t>
+  </si>
+  <si>
+    <t>22367.99</t>
+  </si>
+  <si>
+    <t>22317.99</t>
+  </si>
+  <si>
+    <t>22277.99</t>
+  </si>
+  <si>
+    <t>22247.99</t>
+  </si>
+  <si>
+    <t>26.34</t>
+  </si>
+  <si>
+    <t>22221.65</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>22321.65</t>
+  </si>
+  <si>
+    <t>22271.65</t>
+  </si>
+  <si>
+    <t>22251.65</t>
+  </si>
+  <si>
+    <t>22236.65</t>
+  </si>
+  <si>
+    <t>16.70</t>
+  </si>
+  <si>
+    <t>22219.95</t>
+  </si>
+  <si>
+    <t>33.23</t>
+  </si>
+  <si>
+    <t>22253.18</t>
+  </si>
+  <si>
+    <t>8.00</t>
+  </si>
+  <si>
+    <t>22245.18</t>
+  </si>
+  <si>
+    <t>22220.18</t>
+  </si>
+  <si>
+    <t>22195.18</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>22125.18</t>
+  </si>
+  <si>
+    <t>22115.18</t>
+  </si>
+  <si>
+    <t>22074.65</t>
+  </si>
+  <si>
+    <t>22034.65</t>
+  </si>
+  <si>
+    <t>14.63</t>
+  </si>
+  <si>
+    <t>22020.02</t>
+  </si>
+  <si>
+    <t>8.85</t>
+  </si>
+  <si>
+    <t>22011.17</t>
+  </si>
+  <si>
+    <t>21996.17</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>21987.17</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>21983.87</t>
+  </si>
+  <si>
+    <t>6.00</t>
+  </si>
+  <si>
+    <t>21977.87</t>
+  </si>
+  <si>
+    <t>21952.87</t>
+  </si>
+  <si>
+    <t>21927.87</t>
+  </si>
+  <si>
+    <t>6.23</t>
+  </si>
+  <si>
+    <t>21921.64</t>
+  </si>
+  <si>
+    <t>12.30</t>
+  </si>
+  <si>
+    <t>21909.34</t>
+  </si>
+  <si>
+    <t>21889.34</t>
+  </si>
+  <si>
+    <t>21.23</t>
+  </si>
+  <si>
+    <t>21868.11</t>
+  </si>
+  <si>
+    <t>21853.11</t>
+  </si>
+  <si>
+    <t>7.44</t>
+  </si>
+  <si>
+    <t>21845.67</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>22945.67</t>
+  </si>
+  <si>
+    <t>18.60</t>
+  </si>
+  <si>
+    <t>22927.07</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>24127.07</t>
+  </si>
+  <si>
+    <t>176.00</t>
+  </si>
+  <si>
+    <t>23951.07</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>24601.07</t>
+  </si>
+  <si>
+    <t>24586.07</t>
+  </si>
+  <si>
+    <t>24561.07</t>
+  </si>
+  <si>
+    <t>24541.07</t>
+  </si>
+  <si>
+    <t>24521.07</t>
+  </si>
+  <si>
+    <t>24491.07</t>
+  </si>
+  <si>
+    <t>19.11</t>
+  </si>
+  <si>
+    <t>24471.96</t>
+  </si>
+  <si>
+    <t>90.00</t>
+  </si>
+  <si>
+    <t>24381.96</t>
+  </si>
+  <si>
+    <t>53.51</t>
+  </si>
+  <si>
+    <t>24328.45</t>
+  </si>
+  <si>
+    <t>24318.45</t>
+  </si>
+  <si>
+    <t>24293.45</t>
+  </si>
+  <si>
+    <t>26.00</t>
+  </si>
+  <si>
+    <t>24267.45</t>
+  </si>
+  <si>
+    <t>18.85</t>
+  </si>
+  <si>
+    <t>24248.60</t>
+  </si>
+  <si>
+    <t>23905.80</t>
+  </si>
+  <si>
+    <t>21.11</t>
+  </si>
+  <si>
+    <t>23884.69</t>
+  </si>
+  <si>
+    <t>35.00</t>
+  </si>
+  <si>
+    <t>23849.69</t>
+  </si>
+  <si>
+    <t>23789.69</t>
+  </si>
+  <si>
+    <t>23699.69</t>
+  </si>
+  <si>
+    <t>57.00</t>
+  </si>
+  <si>
+    <t>23642.69</t>
+  </si>
+  <si>
+    <t>23627.69</t>
   </si>
 </sst>
 </file>
@@ -620,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF65"/>
+  <dimension ref="A1:AF78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y72" sqref="A2:Y72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -632,11 +1028,11 @@
     <col min="2" max="2" width="1.140625" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="1.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="1.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="2.140625" customWidth="1"/>
     <col min="15" max="15" width="1.5703125" bestFit="1" customWidth="1"/>
@@ -660,7 +1056,7 @@
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="R1" s="5">
-        <v>21346.03</v>
+        <v>22720.16</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -671,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <v>40575</v>
+        <v>42430</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -680,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>2</v>
@@ -698,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>2</v>
@@ -709,21 +1105,20 @@
       <c r="O2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="5">
-        <v>20</v>
+      <c r="P2" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="Q2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="5">
-        <f>IF(I2="Débito",R1-P2,R1+P2)</f>
-        <v>21326.03</v>
+      <c r="R2" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="S2" t="s">
         <v>4</v>
       </c>
       <c r="T2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="U2" t="s">
         <v>4</v>
@@ -735,7 +1130,7 @@
         <v>52</v>
       </c>
       <c r="X2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y2" s="4" t="s">
         <v>54</v>
@@ -762,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>40575</v>
+        <v>42430</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -771,7 +1166,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>2</v>
@@ -789,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>2</v>
@@ -800,21 +1195,20 @@
       <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="5">
-        <v>8</v>
+      <c r="P3" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="Q3" t="s">
         <v>4</v>
       </c>
-      <c r="R3" s="5">
-        <f t="shared" ref="R3:R65" si="0">IF(I3="Débito",R2-P3,R2+P3)</f>
-        <v>21318.03</v>
+      <c r="R3" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="S3" t="s">
         <v>4</v>
       </c>
       <c r="T3">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U3" t="s">
         <v>4</v>
@@ -852,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2">
-        <v>40576</v>
+        <v>42431</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
@@ -861,7 +1255,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>2</v>
@@ -879,7 +1273,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>2</v>
@@ -890,15 +1284,14 @@
       <c r="O4" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="5">
-        <v>12</v>
+      <c r="P4" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="Q4" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" si="0"/>
-        <v>21306.03</v>
+      <c r="R4" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="S4" t="s">
         <v>4</v>
@@ -943,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>40576</v>
+        <v>42431</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>2</v>
@@ -952,7 +1345,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>2</v>
@@ -981,21 +1374,21 @@
       <c r="O5" t="s">
         <v>4</v>
       </c>
-      <c r="P5" s="5">
-        <v>30</v>
+      <c r="P5" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="Q5" t="s">
         <v>4</v>
       </c>
-      <c r="R5" s="5">
-        <f t="shared" si="0"/>
-        <v>21276.03</v>
+      <c r="R5" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="S5" t="s">
         <v>4</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <f>IF(L5="Almoço",39,IF(L5="Gasolina",7))</f>
+        <v>39</v>
       </c>
       <c r="U5" t="s">
         <v>4</v>
@@ -1034,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2">
-        <v>40576</v>
+        <v>42432</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>2</v>
@@ -1043,7 +1436,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>2</v>
@@ -1061,7 +1454,7 @@
         <v>1</v>
       </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>2</v>
@@ -1072,21 +1465,20 @@
       <c r="O6" t="s">
         <v>4</v>
       </c>
-      <c r="P6" s="5">
-        <v>7.65</v>
+      <c r="P6" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="Q6" t="s">
         <v>4</v>
       </c>
-      <c r="R6" s="5">
-        <f t="shared" si="0"/>
-        <v>21268.379999999997</v>
+      <c r="R6" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="S6" t="s">
         <v>4</v>
       </c>
       <c r="T6">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="U6" t="s">
         <v>4</v>
@@ -1098,7 +1490,7 @@
         <v>52</v>
       </c>
       <c r="X6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="4" t="s">
         <v>54</v>
@@ -1125,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="2">
-        <v>40577</v>
+        <v>42432</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>2</v>
@@ -1134,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
@@ -1152,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="L7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="M7" s="3" t="s">
         <v>2</v>
@@ -1163,21 +1555,21 @@
       <c r="O7" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="5">
-        <v>115</v>
+      <c r="P7" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q7" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="5">
-        <f t="shared" si="0"/>
-        <v>21153.379999999997</v>
+      <c r="R7" s="5" t="s">
+        <v>123</v>
       </c>
       <c r="S7" t="s">
         <v>4</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <f t="shared" ref="T6:T69" si="0">IF(L7="Almoço",39,IF(L7="Gasolina",7))</f>
+        <v>7</v>
       </c>
       <c r="U7" t="s">
         <v>4</v>
@@ -1189,7 +1581,7 @@
         <v>52</v>
       </c>
       <c r="X7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y7" s="4" t="s">
         <v>54</v>
@@ -1216,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="2">
-        <v>40577</v>
+        <v>42432</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>2</v>
@@ -1225,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>2</v>
@@ -1243,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>86</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>2</v>
@@ -1254,21 +1646,20 @@
       <c r="O8" t="s">
         <v>4</v>
       </c>
-      <c r="P8" s="5">
-        <v>22.33</v>
+      <c r="P8" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
         <v>4</v>
       </c>
-      <c r="R8" s="5">
-        <f t="shared" si="0"/>
-        <v>21131.049999999996</v>
+      <c r="R8" s="5" t="s">
+        <v>124</v>
       </c>
       <c r="S8" t="s">
         <v>4</v>
       </c>
       <c r="T8">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="U8" t="s">
         <v>4</v>
@@ -1307,7 +1698,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="2">
-        <v>40577</v>
+        <v>42432</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>2</v>
@@ -1316,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>2</v>
@@ -1334,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>87</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>2</v>
@@ -1345,21 +1736,20 @@
       <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" s="5">
-        <v>22</v>
+      <c r="P9" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="Q9" t="s">
         <v>4</v>
       </c>
-      <c r="R9" s="5">
-        <f t="shared" si="0"/>
-        <v>21109.049999999996</v>
+      <c r="R9" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="S9" t="s">
         <v>4</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="U9" t="s">
         <v>4</v>
@@ -1398,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2">
-        <v>40578</v>
+        <v>42433</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>2</v>
@@ -1407,7 +1797,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>2</v>
@@ -1425,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>2</v>
@@ -1436,21 +1826,20 @@
       <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="P10" s="5">
-        <v>270</v>
+      <c r="P10" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q10" t="s">
         <v>4</v>
       </c>
-      <c r="R10" s="5">
-        <f t="shared" si="0"/>
-        <v>20839.049999999996</v>
+      <c r="R10" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="S10" t="s">
         <v>4</v>
       </c>
       <c r="T10">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="U10" t="s">
         <v>4</v>
@@ -1489,7 +1878,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="2">
-        <v>40578</v>
+        <v>42433</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>2</v>
@@ -1498,7 +1887,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>2</v>
@@ -1516,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="L11" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>2</v>
@@ -1527,21 +1916,20 @@
       <c r="O11" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="5">
-        <v>30</v>
+      <c r="P11" s="5" t="s">
+        <v>128</v>
       </c>
       <c r="Q11" t="s">
         <v>4</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" si="0"/>
-        <v>20809.049999999996</v>
+      <c r="R11" s="5" t="s">
+        <v>129</v>
       </c>
       <c r="S11" t="s">
         <v>4</v>
       </c>
       <c r="T11">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="U11" t="s">
         <v>4</v>
@@ -1580,7 +1968,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="2">
-        <v>40578</v>
+        <v>42433</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>2</v>
@@ -1589,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>2</v>
@@ -1598,7 +1986,7 @@
         <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>2</v>
@@ -1618,21 +2006,20 @@
       <c r="O12" t="s">
         <v>4</v>
       </c>
-      <c r="P12" s="5">
-        <v>21.17</v>
+      <c r="P12" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="Q12" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="5">
-        <f t="shared" si="0"/>
-        <v>20787.879999999997</v>
+      <c r="R12" s="5" t="s">
+        <v>131</v>
       </c>
       <c r="S12" t="s">
         <v>4</v>
       </c>
       <c r="T12">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="U12" t="s">
         <v>4</v>
@@ -1671,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="2">
-        <v>40579</v>
+        <v>42434</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>2</v>
@@ -1680,7 +2067,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>2</v>
@@ -1698,7 +2085,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
@@ -1709,21 +2096,20 @@
       <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="5">
-        <v>15</v>
+      <c r="P13" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="Q13" t="s">
         <v>4</v>
       </c>
-      <c r="R13" s="5">
-        <f t="shared" si="0"/>
-        <v>20772.879999999997</v>
+      <c r="R13" s="5" t="s">
+        <v>133</v>
       </c>
       <c r="S13" t="s">
         <v>4</v>
       </c>
       <c r="T13">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="U13" t="s">
         <v>4</v>
@@ -1762,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <v>40579</v>
+        <v>42435</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>2</v>
@@ -1771,7 +2157,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>2</v>
@@ -1789,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="L14" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>2</v>
@@ -1800,21 +2186,20 @@
       <c r="O14" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="5">
-        <v>85</v>
+      <c r="P14" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="Q14" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="5">
-        <f t="shared" si="0"/>
-        <v>20687.879999999997</v>
+      <c r="R14" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="S14" t="s">
         <v>4</v>
       </c>
       <c r="T14">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="U14" t="s">
         <v>4</v>
@@ -1826,7 +2211,7 @@
         <v>52</v>
       </c>
       <c r="X14" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y14" s="4" t="s">
         <v>54</v>
@@ -1853,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="2">
-        <v>40580</v>
+        <v>42437</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>2</v>
@@ -1862,7 +2247,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>2</v>
@@ -1880,7 +2265,7 @@
         <v>1</v>
       </c>
       <c r="L15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>2</v>
@@ -1891,21 +2276,20 @@
       <c r="O15" t="s">
         <v>4</v>
       </c>
-      <c r="P15" s="5">
-        <v>211.14</v>
+      <c r="P15" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="Q15" t="s">
         <v>4</v>
       </c>
-      <c r="R15" s="5">
-        <f t="shared" si="0"/>
-        <v>20476.739999999998</v>
+      <c r="R15" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="S15" t="s">
         <v>4</v>
       </c>
       <c r="T15">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="U15" t="s">
         <v>4</v>
@@ -1944,7 +2328,7 @@
         <v>1</v>
       </c>
       <c r="C16" s="2">
-        <v>40581</v>
+        <v>42438</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2</v>
@@ -1953,7 +2337,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>2</v>
@@ -1971,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="L16" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>2</v>
@@ -1982,15 +2366,14 @@
       <c r="O16" t="s">
         <v>4</v>
       </c>
-      <c r="P16" s="5">
-        <v>83</v>
+      <c r="P16" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="Q16" t="s">
         <v>4</v>
       </c>
-      <c r="R16" s="5">
-        <f t="shared" si="0"/>
-        <v>20393.739999999998</v>
+      <c r="R16" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="S16" t="s">
         <v>4</v>
@@ -2035,7 +2418,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="2">
-        <v>40581</v>
+        <v>42438</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2</v>
@@ -2044,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>2</v>
@@ -2062,7 +2445,7 @@
         <v>1</v>
       </c>
       <c r="L17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M17" s="3" t="s">
         <v>2</v>
@@ -2073,20 +2456,20 @@
       <c r="O17" t="s">
         <v>4</v>
       </c>
-      <c r="P17" s="5">
-        <v>16.3</v>
+      <c r="P17" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="Q17" t="s">
         <v>4</v>
       </c>
-      <c r="R17" s="5">
+      <c r="R17" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="S17" t="s">
+        <v>4</v>
+      </c>
+      <c r="T17">
         <f t="shared" si="0"/>
-        <v>20377.439999999999</v>
-      </c>
-      <c r="S17" t="s">
-        <v>4</v>
-      </c>
-      <c r="T17">
         <v>7</v>
       </c>
       <c r="U17" t="s">
@@ -2126,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="2">
-        <v>40581</v>
+        <v>42439</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2</v>
@@ -2135,7 +2518,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>2</v>
@@ -2144,7 +2527,7 @@
         <v>1</v>
       </c>
       <c r="I18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>2</v>
@@ -2164,21 +2547,20 @@
       <c r="O18" t="s">
         <v>4</v>
       </c>
-      <c r="P18" s="5">
-        <v>4184</v>
+      <c r="P18" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="Q18" t="s">
         <v>4</v>
       </c>
-      <c r="R18" s="5">
-        <f t="shared" si="0"/>
-        <v>24561.439999999999</v>
+      <c r="R18" s="5" t="s">
+        <v>139</v>
       </c>
       <c r="S18" t="s">
         <v>4</v>
       </c>
       <c r="T18">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="U18" t="s">
         <v>4</v>
@@ -2190,7 +2572,7 @@
         <v>52</v>
       </c>
       <c r="X18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="4" t="s">
         <v>54</v>
@@ -2217,7 +2599,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2">
-        <v>40582</v>
+        <v>42439</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2</v>
@@ -2226,7 +2608,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>2</v>
@@ -2244,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>2</v>
@@ -2255,21 +2637,21 @@
       <c r="O19" t="s">
         <v>4</v>
       </c>
-      <c r="P19" s="5">
-        <v>31</v>
+      <c r="P19" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="Q19" t="s">
         <v>4</v>
       </c>
-      <c r="R19" s="5">
+      <c r="R19" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="S19" t="s">
+        <v>4</v>
+      </c>
+      <c r="T19">
         <f t="shared" si="0"/>
-        <v>24530.44</v>
-      </c>
-      <c r="S19" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="U19" t="s">
         <v>4</v>
@@ -2281,7 +2663,7 @@
         <v>52</v>
       </c>
       <c r="X19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y19" s="4" t="s">
         <v>54</v>
@@ -2307,7 +2689,7 @@
         <v>1</v>
       </c>
       <c r="C20" s="2">
-        <v>40582</v>
+        <v>42439</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2</v>
@@ -2316,7 +2698,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>2</v>
@@ -2334,7 +2716,7 @@
         <v>1</v>
       </c>
       <c r="L20" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>2</v>
@@ -2345,21 +2727,20 @@
       <c r="O20" t="s">
         <v>4</v>
       </c>
-      <c r="P20" s="5">
-        <v>18.350000000000001</v>
+      <c r="P20" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q20" t="s">
         <v>4</v>
       </c>
-      <c r="R20" s="5">
-        <f t="shared" si="0"/>
-        <v>24512.09</v>
+      <c r="R20" s="5" t="s">
+        <v>141</v>
       </c>
       <c r="S20" t="s">
         <v>4</v>
       </c>
       <c r="T20">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="U20" t="s">
         <v>4</v>
@@ -2397,7 +2778,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <v>40582</v>
+        <v>42439</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2</v>
@@ -2406,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>2</v>
@@ -2415,7 +2796,7 @@
         <v>1</v>
       </c>
       <c r="I21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>2</v>
@@ -2424,7 +2805,7 @@
         <v>1</v>
       </c>
       <c r="L21" t="s">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="M21" s="3" t="s">
         <v>2</v>
@@ -2435,21 +2816,20 @@
       <c r="O21" t="s">
         <v>4</v>
       </c>
-      <c r="P21" s="5">
-        <v>40.92</v>
+      <c r="P21" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="Q21" t="s">
         <v>4</v>
       </c>
-      <c r="R21" s="5">
-        <f t="shared" si="0"/>
-        <v>24553.01</v>
+      <c r="R21" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="S21" t="s">
         <v>4</v>
       </c>
       <c r="T21">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="U21" t="s">
         <v>4</v>
@@ -2487,7 +2867,7 @@
         <v>1</v>
       </c>
       <c r="C22" s="2">
-        <v>40582</v>
+        <v>42439</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2</v>
@@ -2496,7 +2876,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>2</v>
@@ -2505,7 +2885,7 @@
         <v>1</v>
       </c>
       <c r="I22" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>2</v>
@@ -2514,7 +2894,7 @@
         <v>1</v>
       </c>
       <c r="L22" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>2</v>
@@ -2525,21 +2905,20 @@
       <c r="O22" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="5">
-        <v>215</v>
+      <c r="P22" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="Q22" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="5">
-        <f t="shared" si="0"/>
-        <v>24338.01</v>
+      <c r="R22" s="5" t="s">
+        <v>145</v>
       </c>
       <c r="S22" t="s">
         <v>4</v>
       </c>
       <c r="T22">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="U22" t="s">
         <v>4</v>
@@ -2577,7 +2956,7 @@
         <v>1</v>
       </c>
       <c r="C23" s="2">
-        <v>40583</v>
+        <v>42440</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2</v>
@@ -2586,7 +2965,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>2</v>
@@ -2604,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="L23" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>2</v>
@@ -2615,21 +2994,20 @@
       <c r="O23" t="s">
         <v>4</v>
       </c>
-      <c r="P23" s="5">
-        <v>156</v>
+      <c r="P23" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="Q23" t="s">
         <v>4</v>
       </c>
-      <c r="R23" s="5">
-        <f t="shared" si="0"/>
-        <v>24182.01</v>
+      <c r="R23" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="S23" t="s">
         <v>4</v>
       </c>
       <c r="T23">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="U23" t="s">
         <v>4</v>
@@ -2661,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="2">
-        <v>40583</v>
+        <v>42440</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2</v>
@@ -2670,7 +3048,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>2</v>
@@ -2688,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="L24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>2</v>
@@ -2699,20 +3077,20 @@
       <c r="O24" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="5">
-        <v>30</v>
+      <c r="P24" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="Q24" t="s">
         <v>4</v>
       </c>
-      <c r="R24" s="5">
+      <c r="R24" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="S24" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24">
         <f t="shared" si="0"/>
-        <v>24152.01</v>
-      </c>
-      <c r="S24" t="s">
-        <v>4</v>
-      </c>
-      <c r="T24">
         <v>7</v>
       </c>
       <c r="U24" t="s">
@@ -2745,7 +3123,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="2">
-        <v>40583</v>
+        <v>42440</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2</v>
@@ -2754,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>2</v>
@@ -2772,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="L25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>2</v>
@@ -2783,20 +3161,20 @@
       <c r="O25" t="s">
         <v>4</v>
       </c>
-      <c r="P25" s="5">
-        <v>17.5</v>
+      <c r="P25" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="Q25" t="s">
         <v>4</v>
       </c>
-      <c r="R25" s="5">
+      <c r="R25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="S25" t="s">
+        <v>4</v>
+      </c>
+      <c r="T25">
         <f t="shared" si="0"/>
-        <v>24134.51</v>
-      </c>
-      <c r="S25" t="s">
-        <v>4</v>
-      </c>
-      <c r="T25">
         <v>39</v>
       </c>
       <c r="U25" t="s">
@@ -2829,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="C26" s="2">
-        <v>40584</v>
+        <v>42440</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2</v>
@@ -2838,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>2</v>
@@ -2856,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="L26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>2</v>
@@ -2867,21 +3245,20 @@
       <c r="O26" t="s">
         <v>4</v>
       </c>
-      <c r="P26" s="5">
-        <v>60</v>
+      <c r="P26" s="5" t="s">
+        <v>149</v>
       </c>
       <c r="Q26" t="s">
         <v>4</v>
       </c>
-      <c r="R26" s="5">
-        <f t="shared" si="0"/>
-        <v>24074.51</v>
+      <c r="R26" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="S26" t="s">
         <v>4</v>
       </c>
       <c r="T26">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="U26" t="s">
         <v>4</v>
@@ -2893,7 +3270,7 @@
         <v>52</v>
       </c>
       <c r="X26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y26" s="4" t="s">
         <v>54</v>
@@ -2913,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="2">
-        <v>40584</v>
+        <v>42440</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2</v>
@@ -2922,7 +3299,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>2</v>
@@ -2931,7 +3308,7 @@
         <v>1</v>
       </c>
       <c r="I27" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>2</v>
@@ -2940,7 +3317,7 @@
         <v>1</v>
       </c>
       <c r="L27" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>2</v>
@@ -2951,21 +3328,20 @@
       <c r="O27" t="s">
         <v>4</v>
       </c>
-      <c r="P27" s="5">
-        <v>30</v>
+      <c r="P27" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="Q27" t="s">
         <v>4</v>
       </c>
-      <c r="R27" s="5">
-        <f t="shared" si="0"/>
-        <v>24044.51</v>
+      <c r="R27" s="5" t="s">
+        <v>152</v>
       </c>
       <c r="S27" t="s">
         <v>4</v>
       </c>
       <c r="T27">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="U27" t="s">
         <v>4</v>
@@ -2991,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="2">
-        <v>40584</v>
+        <v>42441</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>2</v>
@@ -3000,7 +3376,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>2</v>
@@ -3018,7 +3394,7 @@
         <v>1</v>
       </c>
       <c r="L28" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>2</v>
@@ -3029,21 +3405,20 @@
       <c r="O28" t="s">
         <v>4</v>
       </c>
-      <c r="P28" s="5">
-        <v>24.75</v>
+      <c r="P28" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="Q28" t="s">
         <v>4</v>
       </c>
-      <c r="R28" s="5">
-        <f t="shared" si="0"/>
-        <v>24019.759999999998</v>
+      <c r="R28" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="S28" t="s">
         <v>4</v>
       </c>
       <c r="T28">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="U28" t="s">
         <v>4</v>
@@ -3081,7 +3456,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="2">
-        <v>40585</v>
+        <v>42441</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>2</v>
@@ -3090,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>2</v>
@@ -3108,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="L29" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>2</v>
@@ -3119,21 +3494,20 @@
       <c r="O29" t="s">
         <v>4</v>
       </c>
-      <c r="P29" s="5">
-        <v>102.46</v>
+      <c r="P29" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q29" t="s">
         <v>4</v>
       </c>
-      <c r="R29" s="5">
-        <f t="shared" si="0"/>
-        <v>23917.3</v>
+      <c r="R29" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="S29" t="s">
         <v>4</v>
       </c>
       <c r="T29">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="U29" t="s">
         <v>4</v>
@@ -3171,7 +3545,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="2">
-        <v>40585</v>
+        <v>42441</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>2</v>
@@ -3180,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>2</v>
@@ -3198,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="L30" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>2</v>
@@ -3209,21 +3583,20 @@
       <c r="O30" t="s">
         <v>4</v>
       </c>
-      <c r="P30" s="5">
-        <v>20.8</v>
+      <c r="P30" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q30" t="s">
         <v>4</v>
       </c>
-      <c r="R30" s="5">
-        <f t="shared" si="0"/>
-        <v>23896.5</v>
+      <c r="R30" s="5" t="s">
+        <v>156</v>
       </c>
       <c r="S30" t="s">
         <v>4</v>
       </c>
       <c r="T30">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U30" t="s">
         <v>4</v>
@@ -3261,7 +3634,7 @@
         <v>1</v>
       </c>
       <c r="C31" s="2">
-        <v>40586</v>
+        <v>42442</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>2</v>
@@ -3270,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>2</v>
@@ -3288,7 +3661,7 @@
         <v>1</v>
       </c>
       <c r="L31" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>2</v>
@@ -3299,21 +3672,20 @@
       <c r="O31" t="s">
         <v>4</v>
       </c>
-      <c r="P31" s="5">
-        <v>40</v>
+      <c r="P31" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="Q31" t="s">
         <v>4</v>
       </c>
-      <c r="R31" s="5">
-        <f t="shared" si="0"/>
-        <v>23856.5</v>
+      <c r="R31" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="S31" t="s">
         <v>4</v>
       </c>
       <c r="T31">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="U31" t="s">
         <v>4</v>
@@ -3351,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="C32" s="2">
-        <v>40586</v>
+        <v>42442</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>2</v>
@@ -3360,7 +3732,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>2</v>
@@ -3378,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="L32" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>2</v>
@@ -3389,21 +3761,20 @@
       <c r="O32" t="s">
         <v>4</v>
       </c>
-      <c r="P32" s="5">
-        <v>20</v>
+      <c r="P32" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="Q32" t="s">
         <v>4</v>
       </c>
-      <c r="R32" s="5">
-        <f t="shared" si="0"/>
-        <v>23836.5</v>
+      <c r="R32" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="S32" t="s">
         <v>4</v>
       </c>
       <c r="T32">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="U32" t="s">
         <v>4</v>
@@ -3441,7 +3812,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="2">
-        <v>40588</v>
+        <v>42443</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>2</v>
@@ -3450,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>2</v>
@@ -3468,7 +3839,7 @@
         <v>1</v>
       </c>
       <c r="L33" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="M33" s="3" t="s">
         <v>2</v>
@@ -3479,21 +3850,20 @@
       <c r="O33" t="s">
         <v>4</v>
       </c>
-      <c r="P33" s="5">
-        <v>5</v>
+      <c r="P33" s="5" t="s">
+        <v>80</v>
       </c>
       <c r="Q33" t="s">
         <v>4</v>
       </c>
-      <c r="R33" s="5">
-        <f t="shared" si="0"/>
-        <v>23831.5</v>
+      <c r="R33" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="S33" t="s">
         <v>4</v>
       </c>
       <c r="T33">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="U33" t="s">
         <v>4</v>
@@ -3505,7 +3875,7 @@
         <v>52</v>
       </c>
       <c r="X33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="4" t="s">
         <v>54</v>
@@ -3531,7 +3901,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="2">
-        <v>40588</v>
+        <v>42445</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>2</v>
@@ -3540,7 +3910,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>2</v>
@@ -3558,7 +3928,7 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M34" s="3" t="s">
         <v>2</v>
@@ -3569,21 +3939,21 @@
       <c r="O34" t="s">
         <v>4</v>
       </c>
-      <c r="P34" s="5">
-        <v>7.48</v>
+      <c r="P34" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="Q34" t="s">
         <v>4</v>
       </c>
-      <c r="R34" s="5">
+      <c r="R34" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="S34" t="s">
+        <v>4</v>
+      </c>
+      <c r="T34">
         <f t="shared" si="0"/>
-        <v>23824.02</v>
-      </c>
-      <c r="S34" t="s">
-        <v>4</v>
-      </c>
-      <c r="T34">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U34" t="s">
         <v>4</v>
@@ -3621,7 +3991,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="2">
-        <v>40589</v>
+        <v>42445</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>2</v>
@@ -3630,7 +4000,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>2</v>
@@ -3648,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="M35" s="3" t="s">
         <v>2</v>
@@ -3659,21 +4029,21 @@
       <c r="O35" t="s">
         <v>4</v>
       </c>
-      <c r="P35" s="5">
-        <v>7.8</v>
+      <c r="P35" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="Q35" t="s">
         <v>4</v>
       </c>
-      <c r="R35" s="5">
+      <c r="R35" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="S35" t="s">
+        <v>4</v>
+      </c>
+      <c r="T35">
         <f t="shared" si="0"/>
-        <v>23816.22</v>
-      </c>
-      <c r="S35" t="s">
-        <v>4</v>
-      </c>
-      <c r="T35">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="U35" t="s">
         <v>4</v>
@@ -3711,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="2">
-        <v>40589</v>
+        <v>42446</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>2</v>
@@ -3720,7 +4090,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>2</v>
@@ -3738,7 +4108,7 @@
         <v>1</v>
       </c>
       <c r="L36" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="M36" s="3" t="s">
         <v>2</v>
@@ -3749,21 +4119,21 @@
       <c r="O36" t="s">
         <v>4</v>
       </c>
-      <c r="P36" s="5">
-        <v>65.5</v>
+      <c r="P36" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="Q36" t="s">
         <v>4</v>
       </c>
-      <c r="R36" s="5">
+      <c r="R36" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="S36" t="s">
+        <v>4</v>
+      </c>
+      <c r="T36">
         <f t="shared" si="0"/>
-        <v>23750.720000000001</v>
-      </c>
-      <c r="S36" t="s">
-        <v>4</v>
-      </c>
-      <c r="T36">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="U36" t="s">
         <v>4</v>
@@ -3801,7 +4171,7 @@
         <v>1</v>
       </c>
       <c r="C37" s="2">
-        <v>40590</v>
+        <v>42447</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>2</v>
@@ -3810,7 +4180,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>2</v>
@@ -3828,7 +4198,7 @@
         <v>1</v>
       </c>
       <c r="L37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M37" s="3" t="s">
         <v>2</v>
@@ -3839,21 +4209,21 @@
       <c r="O37" t="s">
         <v>4</v>
       </c>
-      <c r="P37" s="5">
-        <v>8.6199999999999992</v>
+      <c r="P37" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="Q37" t="s">
         <v>4</v>
       </c>
-      <c r="R37" s="5">
+      <c r="R37" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="S37" t="s">
+        <v>4</v>
+      </c>
+      <c r="T37">
         <f t="shared" si="0"/>
-        <v>23742.100000000002</v>
-      </c>
-      <c r="S37" t="s">
-        <v>4</v>
-      </c>
-      <c r="T37">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U37" t="s">
         <v>4</v>
@@ -3891,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="2">
-        <v>40590</v>
+        <v>42447</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>2</v>
@@ -3900,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>2</v>
@@ -3918,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="L38" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="M38" s="3" t="s">
         <v>2</v>
@@ -3929,21 +4299,21 @@
       <c r="O38" t="s">
         <v>4</v>
       </c>
-      <c r="P38" s="5">
-        <v>12</v>
+      <c r="P38" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="Q38" t="s">
         <v>4</v>
       </c>
-      <c r="R38" s="5">
+      <c r="R38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="S38" t="s">
+        <v>4</v>
+      </c>
+      <c r="T38">
         <f t="shared" si="0"/>
-        <v>23730.100000000002</v>
-      </c>
-      <c r="S38" t="s">
-        <v>4</v>
-      </c>
-      <c r="T38">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="U38" t="s">
         <v>4</v>
@@ -3981,7 +4351,7 @@
         <v>1</v>
       </c>
       <c r="C39" s="2">
-        <v>40591</v>
+        <v>42448</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>2</v>
@@ -3990,7 +4360,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>2</v>
@@ -4008,7 +4378,7 @@
         <v>1</v>
       </c>
       <c r="L39" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="M39" s="3" t="s">
         <v>2</v>
@@ -4019,21 +4389,20 @@
       <c r="O39" t="s">
         <v>4</v>
       </c>
-      <c r="P39" s="5">
-        <v>10.3</v>
+      <c r="P39" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="Q39" t="s">
         <v>4</v>
       </c>
-      <c r="R39" s="5">
-        <f t="shared" si="0"/>
-        <v>23719.800000000003</v>
+      <c r="R39" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="S39" t="s">
         <v>4</v>
       </c>
       <c r="T39">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="U39" t="s">
         <v>4</v>
@@ -4071,7 +4440,7 @@
         <v>1</v>
       </c>
       <c r="C40" s="2">
-        <v>40591</v>
+        <v>42448</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>2</v>
@@ -4080,7 +4449,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>2</v>
@@ -4098,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="L40" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="M40" s="3" t="s">
         <v>2</v>
@@ -4109,21 +4478,21 @@
       <c r="O40" t="s">
         <v>4</v>
       </c>
-      <c r="P40" s="5">
-        <v>48.25</v>
+      <c r="P40" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="Q40" t="s">
         <v>4</v>
       </c>
-      <c r="R40" s="5">
+      <c r="R40" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="S40" t="s">
+        <v>4</v>
+      </c>
+      <c r="T40">
         <f t="shared" si="0"/>
-        <v>23671.550000000003</v>
-      </c>
-      <c r="S40" t="s">
-        <v>4</v>
-      </c>
-      <c r="T40">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="U40" t="s">
         <v>4</v>
@@ -4161,7 +4530,7 @@
         <v>1</v>
       </c>
       <c r="C41" s="2">
-        <v>40592</v>
+        <v>42449</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>2</v>
@@ -4170,7 +4539,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>2</v>
@@ -4188,7 +4557,7 @@
         <v>1</v>
       </c>
       <c r="L41" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>2</v>
@@ -4199,15 +4568,14 @@
       <c r="O41" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="5">
-        <v>20</v>
+      <c r="P41" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q41" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="5">
-        <f t="shared" si="0"/>
-        <v>23651.550000000003</v>
+      <c r="R41" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="S41" t="s">
         <v>4</v>
@@ -4251,7 +4619,7 @@
         <v>1</v>
       </c>
       <c r="C42" s="2">
-        <v>40592</v>
+        <v>42449</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>2</v>
@@ -4260,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>2</v>
@@ -4278,7 +4646,7 @@
         <v>1</v>
       </c>
       <c r="L42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>2</v>
@@ -4289,21 +4657,21 @@
       <c r="O42" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="5">
-        <v>10.09</v>
+      <c r="P42" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q42" t="s">
         <v>4</v>
       </c>
-      <c r="R42" s="5">
+      <c r="R42" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="S42" t="s">
+        <v>4</v>
+      </c>
+      <c r="T42">
         <f t="shared" si="0"/>
-        <v>23641.460000000003</v>
-      </c>
-      <c r="S42" t="s">
-        <v>4</v>
-      </c>
-      <c r="T42">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U42" t="s">
         <v>4</v>
@@ -4341,7 +4709,7 @@
         <v>1</v>
       </c>
       <c r="C43" s="2">
-        <v>40593</v>
+        <v>42449</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>2</v>
@@ -4350,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>2</v>
@@ -4368,7 +4736,7 @@
         <v>1</v>
       </c>
       <c r="L43" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>2</v>
@@ -4379,21 +4747,20 @@
       <c r="O43" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="5">
-        <v>50.5</v>
+      <c r="P43" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="Q43" t="s">
         <v>4</v>
       </c>
-      <c r="R43" s="5">
-        <f t="shared" si="0"/>
-        <v>23590.960000000003</v>
+      <c r="R43" s="5" t="s">
+        <v>176</v>
       </c>
       <c r="S43" t="s">
         <v>4</v>
       </c>
       <c r="T43">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="U43" t="s">
         <v>4</v>
@@ -4431,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="C44" s="2">
-        <v>40593</v>
+        <v>42450</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>2</v>
@@ -4440,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>2</v>
@@ -4469,21 +4836,21 @@
       <c r="O44" t="s">
         <v>4</v>
       </c>
-      <c r="P44" s="5">
-        <v>40</v>
+      <c r="P44" s="5" t="s">
+        <v>177</v>
       </c>
       <c r="Q44" t="s">
         <v>4</v>
       </c>
-      <c r="R44" s="5">
+      <c r="R44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="S44" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44">
         <f t="shared" si="0"/>
-        <v>23550.960000000003</v>
-      </c>
-      <c r="S44" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="U44" t="s">
         <v>4</v>
@@ -4521,7 +4888,7 @@
         <v>1</v>
       </c>
       <c r="C45" s="2">
-        <v>40593</v>
+        <v>42450</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>2</v>
@@ -4530,7 +4897,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
@@ -4548,7 +4915,7 @@
         <v>1</v>
       </c>
       <c r="L45" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>2</v>
@@ -4559,21 +4926,21 @@
       <c r="O45" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="5">
-        <v>25</v>
+      <c r="P45" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="Q45" t="s">
         <v>4</v>
       </c>
-      <c r="R45" s="5">
+      <c r="R45" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="S45" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45">
         <f t="shared" si="0"/>
-        <v>23525.960000000003</v>
-      </c>
-      <c r="S45" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="U45" t="s">
         <v>4</v>
@@ -4611,7 +4978,7 @@
         <v>1</v>
       </c>
       <c r="C46" s="2">
-        <v>40594</v>
+        <v>42451</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>2</v>
@@ -4620,7 +4987,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>2</v>
@@ -4638,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="L46" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>2</v>
@@ -4649,21 +5016,21 @@
       <c r="O46" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="5">
-        <v>24</v>
+      <c r="P46" s="5" t="s">
+        <v>180</v>
       </c>
       <c r="Q46" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="5">
+      <c r="R46" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="S46" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46">
         <f t="shared" si="0"/>
-        <v>23501.960000000003</v>
-      </c>
-      <c r="S46" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="U46" t="s">
         <v>4</v>
@@ -4701,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="C47" s="2">
-        <v>40594</v>
+        <v>42451</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>2</v>
@@ -4710,7 +5077,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>2</v>
@@ -4728,7 +5095,7 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>2</v>
@@ -4739,21 +5106,20 @@
       <c r="O47" t="s">
         <v>4</v>
       </c>
-      <c r="P47" s="5">
-        <v>10</v>
+      <c r="P47" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="Q47" t="s">
         <v>4</v>
       </c>
-      <c r="R47" s="5">
-        <f t="shared" si="0"/>
-        <v>23491.960000000003</v>
+      <c r="R47" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="S47" t="s">
         <v>4</v>
       </c>
       <c r="T47">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="U47" t="s">
         <v>4</v>
@@ -4791,7 +5157,7 @@
         <v>1</v>
       </c>
       <c r="C48" s="2">
-        <v>40595</v>
+        <v>42451</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>2</v>
@@ -4800,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>2</v>
@@ -4818,7 +5184,7 @@
         <v>1</v>
       </c>
       <c r="L48" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>2</v>
@@ -4829,21 +5195,20 @@
       <c r="O48" t="s">
         <v>4</v>
       </c>
-      <c r="P48">
-        <v>100</v>
+      <c r="P48" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="Q48" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="5">
-        <f t="shared" si="0"/>
-        <v>23391.960000000003</v>
+      <c r="R48" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="S48" t="s">
         <v>4</v>
       </c>
       <c r="T48">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="U48" t="s">
         <v>4</v>
@@ -4881,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="2">
-        <v>40595</v>
+        <v>42451</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>2</v>
@@ -4890,7 +5255,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>2</v>
@@ -4899,7 +5264,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>2</v>
@@ -4908,7 +5273,7 @@
         <v>1</v>
       </c>
       <c r="L49" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>2</v>
@@ -4919,21 +5284,20 @@
       <c r="O49" t="s">
         <v>4</v>
       </c>
-      <c r="P49">
-        <v>6.35</v>
+      <c r="P49" s="5" t="s">
+        <v>185</v>
       </c>
       <c r="Q49" t="s">
         <v>4</v>
       </c>
-      <c r="R49" s="5">
-        <f t="shared" si="0"/>
-        <v>23385.610000000004</v>
+      <c r="R49" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="S49" t="s">
         <v>4</v>
       </c>
       <c r="T49">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U49" t="s">
         <v>4</v>
@@ -4965,7 +5329,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="2">
-        <v>40596</v>
+        <v>42452</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>2</v>
@@ -4974,7 +5338,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>2</v>
@@ -4992,7 +5356,7 @@
         <v>1</v>
       </c>
       <c r="L50" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="M50" s="3" t="s">
         <v>2</v>
@@ -5003,21 +5367,21 @@
       <c r="O50" t="s">
         <v>4</v>
       </c>
-      <c r="P50">
-        <v>18.920000000000002</v>
+      <c r="P50" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="Q50" t="s">
         <v>4</v>
       </c>
-      <c r="R50" s="5">
+      <c r="R50" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S50" t="s">
+        <v>4</v>
+      </c>
+      <c r="T50">
         <f t="shared" si="0"/>
-        <v>23366.690000000006</v>
-      </c>
-      <c r="S50" t="s">
-        <v>4</v>
-      </c>
-      <c r="T50">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="U50" t="s">
         <v>4</v>
@@ -5049,7 +5413,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="2">
-        <v>40596</v>
+        <v>42452</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>2</v>
@@ -5058,7 +5422,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>2</v>
@@ -5067,7 +5431,7 @@
         <v>1</v>
       </c>
       <c r="I51" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" s="3" t="s">
         <v>2</v>
@@ -5076,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="L51" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M51" s="3" t="s">
         <v>2</v>
@@ -5087,21 +5451,20 @@
       <c r="O51" t="s">
         <v>4</v>
       </c>
-      <c r="P51">
-        <v>8.98</v>
+      <c r="P51" s="5" t="s">
+        <v>189</v>
       </c>
       <c r="Q51" t="s">
         <v>4</v>
       </c>
-      <c r="R51" s="5">
-        <f t="shared" si="0"/>
-        <v>23357.710000000006</v>
+      <c r="R51" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="S51" t="s">
         <v>4</v>
       </c>
       <c r="T51">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U51" t="s">
         <v>4</v>
@@ -5133,7 +5496,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="2">
-        <v>40597</v>
+        <v>42452</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>2</v>
@@ -5142,7 +5505,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>2</v>
@@ -5160,7 +5523,7 @@
         <v>1</v>
       </c>
       <c r="L52" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>2</v>
@@ -5171,21 +5534,20 @@
       <c r="O52" t="s">
         <v>4</v>
       </c>
-      <c r="P52">
-        <v>13.62</v>
+      <c r="P52" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="Q52" t="s">
         <v>4</v>
       </c>
-      <c r="R52" s="5">
-        <f t="shared" si="0"/>
-        <v>23344.090000000007</v>
+      <c r="R52" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="S52" t="s">
         <v>4</v>
       </c>
       <c r="T52">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="U52" t="s">
         <v>4</v>
@@ -5217,7 +5579,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="2">
-        <v>40597</v>
+        <v>42452</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>2</v>
@@ -5226,7 +5588,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>2</v>
@@ -5235,7 +5597,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" s="3" t="s">
         <v>2</v>
@@ -5244,7 +5606,7 @@
         <v>1</v>
       </c>
       <c r="L53" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="M53" s="3" t="s">
         <v>2</v>
@@ -5255,21 +5617,20 @@
       <c r="O53" t="s">
         <v>4</v>
       </c>
-      <c r="P53">
-        <v>9.5</v>
+      <c r="P53" s="5" t="s">
+        <v>193</v>
       </c>
       <c r="Q53" t="s">
         <v>4</v>
       </c>
-      <c r="R53" s="5">
-        <f t="shared" si="0"/>
-        <v>23334.590000000007</v>
+      <c r="R53" s="5" t="s">
+        <v>194</v>
       </c>
       <c r="S53" t="s">
         <v>4</v>
       </c>
       <c r="T53">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="U53" t="s">
         <v>4</v>
@@ -5295,7 +5656,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="2">
-        <v>40598</v>
+        <v>42453</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>2</v>
@@ -5304,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
@@ -5322,7 +5683,7 @@
         <v>1</v>
       </c>
       <c r="L54" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>2</v>
@@ -5333,21 +5694,20 @@
       <c r="O54" t="s">
         <v>4</v>
       </c>
-      <c r="P54">
-        <v>10</v>
+      <c r="P54" s="5" t="s">
+        <v>77</v>
       </c>
       <c r="Q54" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="5">
-        <f t="shared" si="0"/>
-        <v>23324.590000000007</v>
+      <c r="R54" s="5" t="s">
+        <v>195</v>
       </c>
       <c r="S54" t="s">
         <v>4</v>
       </c>
       <c r="T54">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="U54" t="s">
         <v>4</v>
@@ -5363,6 +5723,18 @@
       </c>
       <c r="Y54" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC54">
+        <v>1</v>
+      </c>
+      <c r="AD54" t="s">
+        <v>6</v>
+      </c>
+      <c r="AE54">
+        <v>24</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
@@ -5373,7 +5745,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="2">
-        <v>40598</v>
+        <v>42453</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>2</v>
@@ -5382,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>2</v>
@@ -5400,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M55" s="3" t="s">
         <v>2</v>
@@ -5411,21 +5783,21 @@
       <c r="O55" t="s">
         <v>4</v>
       </c>
-      <c r="P55">
-        <v>7.45</v>
+      <c r="P55" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q55" t="s">
         <v>4</v>
       </c>
-      <c r="R55" s="5">
+      <c r="R55" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S55" t="s">
+        <v>4</v>
+      </c>
+      <c r="T55">
         <f t="shared" si="0"/>
-        <v>23317.140000000007</v>
-      </c>
-      <c r="S55" t="s">
-        <v>4</v>
-      </c>
-      <c r="T55">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U55" t="s">
         <v>4</v>
@@ -5441,6 +5813,18 @@
       </c>
       <c r="Y55" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC55">
+        <v>2</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>7</v>
+      </c>
+      <c r="AE55">
+        <v>18</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
@@ -5451,7 +5835,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="2">
-        <v>40599</v>
+        <v>42454</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>2</v>
@@ -5460,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>2</v>
@@ -5478,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="M56" s="3" t="s">
         <v>2</v>
@@ -5489,21 +5873,20 @@
       <c r="O56" t="s">
         <v>4</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="5" t="s">
         <v>70</v>
       </c>
       <c r="Q56" t="s">
         <v>4</v>
       </c>
-      <c r="R56" s="5">
-        <f t="shared" si="0"/>
-        <v>23247.140000000007</v>
+      <c r="R56" s="5" t="s">
+        <v>197</v>
       </c>
       <c r="S56" t="s">
         <v>4</v>
       </c>
       <c r="T56">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="U56" t="s">
         <v>4</v>
@@ -5519,6 +5902,18 @@
       </c>
       <c r="Y56" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
+      <c r="AD56" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE56">
+        <v>25</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
@@ -5529,7 +5924,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="2">
-        <v>40599</v>
+        <v>42454</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>2</v>
@@ -5538,7 +5933,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>2</v>
@@ -5556,7 +5951,7 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M57" s="3" t="s">
         <v>2</v>
@@ -5567,20 +5962,20 @@
       <c r="O57" t="s">
         <v>4</v>
       </c>
-      <c r="P57">
-        <v>30</v>
+      <c r="P57" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="Q57" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="5">
+      <c r="R57" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="S57" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57">
         <f t="shared" si="0"/>
-        <v>23217.140000000007</v>
-      </c>
-      <c r="S57" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57">
         <v>7</v>
       </c>
       <c r="U57" t="s">
@@ -5597,6 +5992,18 @@
       </c>
       <c r="Y57" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC57">
+        <v>4</v>
+      </c>
+      <c r="AD57" t="s">
+        <v>9</v>
+      </c>
+      <c r="AE57">
+        <v>26</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
@@ -5607,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="2">
-        <v>40599</v>
+        <v>42454</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>2</v>
@@ -5616,7 +6023,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>2</v>
@@ -5634,7 +6041,7 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="M58" s="3" t="s">
         <v>2</v>
@@ -5645,21 +6052,20 @@
       <c r="O58" t="s">
         <v>4</v>
       </c>
-      <c r="P58">
-        <v>12.1</v>
+      <c r="P58" s="5" t="s">
+        <v>76</v>
       </c>
       <c r="Q58" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="5">
-        <f t="shared" si="0"/>
-        <v>23205.040000000008</v>
+      <c r="R58" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="S58" t="s">
         <v>4</v>
       </c>
       <c r="T58">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="U58" t="s">
         <v>4</v>
@@ -5675,6 +6081,18 @@
       </c>
       <c r="Y58" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC58">
+        <v>5</v>
+      </c>
+      <c r="AD58" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE58">
+        <v>27</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
@@ -5685,7 +6103,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="2">
-        <v>40600</v>
+        <v>42454</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>2</v>
@@ -5694,7 +6112,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>2</v>
@@ -5712,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="M59" s="3" t="s">
         <v>2</v>
@@ -5723,21 +6141,20 @@
       <c r="O59" t="s">
         <v>4</v>
       </c>
-      <c r="P59">
-        <v>50</v>
+      <c r="P59" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="Q59" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="5">
-        <f t="shared" si="0"/>
-        <v>23155.040000000008</v>
+      <c r="R59" s="5" t="s">
+        <v>201</v>
       </c>
       <c r="S59" t="s">
         <v>4</v>
       </c>
       <c r="T59">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="U59" t="s">
         <v>4</v>
@@ -5753,6 +6170,18 @@
       </c>
       <c r="Y59" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC59">
+        <v>6</v>
+      </c>
+      <c r="AD59" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE59">
+        <v>28</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
@@ -5763,7 +6192,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="2">
-        <v>40600</v>
+        <v>42455</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>2</v>
@@ -5772,7 +6201,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>2</v>
@@ -5790,7 +6219,7 @@
         <v>1</v>
       </c>
       <c r="L60" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>2</v>
@@ -5801,21 +6230,20 @@
       <c r="O60" t="s">
         <v>4</v>
       </c>
-      <c r="P60">
-        <v>11.9</v>
+      <c r="P60" s="5" t="s">
+        <v>202</v>
       </c>
       <c r="Q60" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="5">
-        <f t="shared" si="0"/>
-        <v>23143.140000000007</v>
+      <c r="R60" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="S60" t="s">
         <v>4</v>
       </c>
       <c r="T60">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="U60" t="s">
         <v>4</v>
@@ -5831,6 +6259,18 @@
       </c>
       <c r="Y60" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC60">
+        <v>7</v>
+      </c>
+      <c r="AD60" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE60">
+        <v>29</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
@@ -5841,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="2">
-        <v>40601</v>
+        <v>42455</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>2</v>
@@ -5850,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>2</v>
@@ -5868,7 +6308,7 @@
         <v>1</v>
       </c>
       <c r="L61" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="M61" s="3" t="s">
         <v>2</v>
@@ -5879,21 +6319,20 @@
       <c r="O61" t="s">
         <v>4</v>
       </c>
-      <c r="P61">
-        <v>20</v>
+      <c r="P61" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="Q61" t="s">
         <v>4</v>
       </c>
-      <c r="R61" s="5">
-        <f t="shared" si="0"/>
-        <v>23123.140000000007</v>
+      <c r="R61" s="5" t="s">
+        <v>205</v>
       </c>
       <c r="S61" t="s">
         <v>4</v>
       </c>
       <c r="T61">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U61" t="s">
         <v>4</v>
@@ -5909,6 +6348,18 @@
       </c>
       <c r="Y61" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC61">
+        <v>8</v>
+      </c>
+      <c r="AD61" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE61">
+        <v>30</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.25">
@@ -5919,7 +6370,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="2">
-        <v>40601</v>
+        <v>42456</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>2</v>
@@ -5928,7 +6379,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>2</v>
@@ -5946,7 +6397,7 @@
         <v>1</v>
       </c>
       <c r="L62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>2</v>
@@ -5957,21 +6408,21 @@
       <c r="O62" t="s">
         <v>4</v>
       </c>
-      <c r="P62">
-        <v>7.2</v>
+      <c r="P62" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="Q62" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="5">
+      <c r="R62" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="S62" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62">
         <f t="shared" si="0"/>
-        <v>23115.940000000006</v>
-      </c>
-      <c r="S62" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U62" t="s">
         <v>4</v>
@@ -5987,6 +6438,18 @@
       </c>
       <c r="Y62" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC62">
+        <v>9</v>
+      </c>
+      <c r="AD62" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE62">
+        <v>31</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.25">
@@ -5997,7 +6460,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="2">
-        <v>40602</v>
+        <v>42456</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>2</v>
@@ -6006,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>2</v>
@@ -6024,7 +6487,7 @@
         <v>1</v>
       </c>
       <c r="L63" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="M63" s="3" t="s">
         <v>2</v>
@@ -6035,21 +6498,20 @@
       <c r="O63" t="s">
         <v>4</v>
       </c>
-      <c r="P63">
-        <v>342.8</v>
+      <c r="P63" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="Q63" t="s">
         <v>4</v>
       </c>
-      <c r="R63" s="5">
-        <f t="shared" si="0"/>
-        <v>22773.140000000007</v>
+      <c r="R63" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="S63" t="s">
         <v>4</v>
       </c>
       <c r="T63">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="U63" t="s">
         <v>4</v>
@@ -6061,10 +6523,22 @@
         <v>52</v>
       </c>
       <c r="X63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Y63" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC63">
+        <v>10</v>
+      </c>
+      <c r="AD63" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE63">
+        <v>32</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
@@ -6075,7 +6549,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="2">
-        <v>40602</v>
+        <v>42457</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>2</v>
@@ -6084,7 +6558,7 @@
         <v>1</v>
       </c>
       <c r="F64" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2</v>
@@ -6102,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="L64" t="s">
-        <v>57</v>
+        <v>111</v>
       </c>
       <c r="M64" s="3" t="s">
         <v>2</v>
@@ -6113,21 +6587,20 @@
       <c r="O64" t="s">
         <v>4</v>
       </c>
-      <c r="P64">
-        <v>40</v>
+      <c r="P64" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="Q64" t="s">
         <v>4</v>
       </c>
-      <c r="R64" s="5">
-        <f t="shared" si="0"/>
-        <v>22733.140000000007</v>
+      <c r="R64" s="5" t="s">
+        <v>209</v>
       </c>
       <c r="S64" t="s">
         <v>4</v>
       </c>
       <c r="T64">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="U64" t="s">
         <v>4</v>
@@ -6144,8 +6617,20 @@
       <c r="Y64" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AC64">
+        <v>11</v>
+      </c>
+      <c r="AD64" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE64">
+        <v>33</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>0</v>
       </c>
@@ -6153,7 +6638,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="2">
-        <v>40602</v>
+        <v>42457</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>2</v>
@@ -6162,7 +6647,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>2</v>
@@ -6180,7 +6665,7 @@
         <v>1</v>
       </c>
       <c r="L65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M65" s="3" t="s">
         <v>2</v>
@@ -6191,21 +6676,21 @@
       <c r="O65" t="s">
         <v>4</v>
       </c>
-      <c r="P65">
-        <v>12.98</v>
+      <c r="P65" s="5" t="s">
+        <v>210</v>
       </c>
       <c r="Q65" t="s">
         <v>4</v>
       </c>
-      <c r="R65" s="5">
+      <c r="R65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="S65" t="s">
+        <v>4</v>
+      </c>
+      <c r="T65">
         <f t="shared" si="0"/>
-        <v>22720.160000000007</v>
-      </c>
-      <c r="S65" t="s">
-        <v>4</v>
-      </c>
-      <c r="T65">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="U65" t="s">
         <v>4</v>
@@ -6221,6 +6706,703 @@
       </c>
       <c r="Y65" s="4" t="s">
         <v>54</v>
+      </c>
+      <c r="AC65">
+        <v>12</v>
+      </c>
+      <c r="AD65" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE65">
+        <v>34</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" s="2">
+        <v>42458</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>84</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>3</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>112</v>
+      </c>
+      <c r="M66" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="S66" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66">
+        <v>48</v>
+      </c>
+      <c r="U66" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66">
+        <v>1</v>
+      </c>
+      <c r="W66" t="s">
+        <v>52</v>
+      </c>
+      <c r="X66" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC66">
+        <v>13</v>
+      </c>
+      <c r="AD66" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE66">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2">
+        <v>42458</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>84</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>3</v>
+      </c>
+      <c r="J67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>56</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>4</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>4</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="S67" t="s">
+        <v>4</v>
+      </c>
+      <c r="T67">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="U67" t="s">
+        <v>4</v>
+      </c>
+      <c r="V67">
+        <v>1</v>
+      </c>
+      <c r="W67" t="s">
+        <v>52</v>
+      </c>
+      <c r="X67" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC67">
+        <v>14</v>
+      </c>
+      <c r="AD67" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE67">
+        <v>36</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" s="2">
+        <v>42459</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I68" t="s">
+        <v>3</v>
+      </c>
+      <c r="J68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K68" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>93</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
+        <v>4</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>4</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="S68" t="s">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>28</v>
+      </c>
+      <c r="U68" t="s">
+        <v>4</v>
+      </c>
+      <c r="V68">
+        <v>1</v>
+      </c>
+      <c r="W68" t="s">
+        <v>52</v>
+      </c>
+      <c r="X68" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC68">
+        <v>15</v>
+      </c>
+      <c r="AD68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE68">
+        <v>37</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69" s="2">
+        <v>42459</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>84</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K69" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>113</v>
+      </c>
+      <c r="M69" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>4</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>4</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="S69" t="s">
+        <v>4</v>
+      </c>
+      <c r="T69">
+        <v>4</v>
+      </c>
+      <c r="U69" t="s">
+        <v>4</v>
+      </c>
+      <c r="V69">
+        <v>1</v>
+      </c>
+      <c r="W69" t="s">
+        <v>52</v>
+      </c>
+      <c r="X69" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC69">
+        <v>16</v>
+      </c>
+      <c r="AD69" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE69">
+        <v>38</v>
+      </c>
+      <c r="AF69" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="2">
+        <v>42460</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>3</v>
+      </c>
+      <c r="J70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>114</v>
+      </c>
+      <c r="M70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>1</v>
+      </c>
+      <c r="O70" t="s">
+        <v>4</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>4</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="S70" t="s">
+        <v>4</v>
+      </c>
+      <c r="T70">
+        <v>1</v>
+      </c>
+      <c r="U70" t="s">
+        <v>4</v>
+      </c>
+      <c r="V70">
+        <v>1</v>
+      </c>
+      <c r="W70" t="s">
+        <v>52</v>
+      </c>
+      <c r="X70" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC70">
+        <v>19</v>
+      </c>
+      <c r="AD70" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE70">
+        <v>39</v>
+      </c>
+      <c r="AF70" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71" s="2">
+        <v>42460</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" t="s">
+        <v>84</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>3</v>
+      </c>
+      <c r="J71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K71" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L71" t="s">
+        <v>115</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
+        <v>4</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>4</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="S71" t="s">
+        <v>4</v>
+      </c>
+      <c r="T71">
+        <v>1</v>
+      </c>
+      <c r="U71" t="s">
+        <v>4</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
+        <v>52</v>
+      </c>
+      <c r="X71" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC71">
+        <v>20</v>
+      </c>
+      <c r="AD71" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE71">
+        <v>40</v>
+      </c>
+      <c r="AF71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2">
+        <v>42460</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F72" t="s">
+        <v>84</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I72" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K72" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L72" t="s">
+        <v>56</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="S72" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72">
+        <f t="shared" ref="T70:T72" si="1">IF(L72="Almoço",39,IF(L72="Gasolina",7))</f>
+        <v>7</v>
+      </c>
+      <c r="U72" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72" t="s">
+        <v>52</v>
+      </c>
+      <c r="X72" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC72">
+        <v>21</v>
+      </c>
+      <c r="AD72" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE72">
+        <v>41</v>
+      </c>
+      <c r="AF72" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC73">
+        <v>22</v>
+      </c>
+      <c r="AD73" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE73">
+        <v>42</v>
+      </c>
+      <c r="AF73" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AC74">
+        <v>23</v>
+      </c>
+      <c r="AD74" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE74">
+        <v>43</v>
+      </c>
+      <c r="AF74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE75">
+        <v>44</v>
+      </c>
+      <c r="AF75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE76">
+        <v>45</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE77">
+        <v>47</v>
+      </c>
+      <c r="AF77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AE78">
+        <v>46</v>
+      </c>
+      <c r="AF78" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
